--- a/arquivos/tabela_dados_sistema.xlsx
+++ b/arquivos/tabela_dados_sistema.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>id</t>
   </si>
@@ -188,7 +188,7 @@
     <t>Semana do Consumidor</t>
   </si>
   <si>
-    <t>Promoção em todos os pro0dutos</t>
+    <t>Promoção em todos os produtos</t>
   </si>
   <si>
     <t>2022-03-14</t>
@@ -285,6 +285,57 @@
   </si>
   <si>
     <t>ed564798cffe7f3bb00ad7fc092124b5</t>
+  </si>
+  <si>
+    <t>2022-06-22</t>
+  </si>
+  <si>
+    <t>Carlos Eduardo</t>
+  </si>
+  <si>
+    <t>1980-07-30</t>
+  </si>
+  <si>
+    <t>carloseduardo@email.com</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>40015-970</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>d8c24e5c47d2b086ee5a355e4803d861</t>
+  </si>
+  <si>
+    <t>2022-07-01</t>
+  </si>
+  <si>
+    <t>Lucas André</t>
+  </si>
+  <si>
+    <t>2000-05-18</t>
+  </si>
+  <si>
+    <t>lucasandre@email.com</t>
+  </si>
+  <si>
+    <t>São Jorge</t>
+  </si>
+  <si>
+    <t>01311-000</t>
+  </si>
+  <si>
+    <t>Alameda</t>
+  </si>
+  <si>
+    <t>Botafogo</t>
+  </si>
+  <si>
+    <t>d5ed38fdbf28bc4e58be142cf5a17cf5</t>
   </si>
 </sst>
 </file>
@@ -623,7 +674,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AS7"/>
+  <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1588,6 +1639,554 @@
       </c>
       <c r="AS7">
         <v>1998.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8">
+        <v>10.97</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>700</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8">
+        <v>456789123</v>
+      </c>
+      <c r="R8" t="s">
+        <v>92</v>
+      </c>
+      <c r="S8" t="s">
+        <v>93</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
+        <v>94</v>
+      </c>
+      <c r="X8">
+        <v>8</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB8">
+        <v>8</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD8">
+        <v>5</v>
+      </c>
+      <c r="AE8">
+        <v>5</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG8">
+        <v>4</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI8">
+        <v>2</v>
+      </c>
+      <c r="AJ8">
+        <v>4</v>
+      </c>
+      <c r="AK8">
+        <v>2</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP8">
+        <v>0.05</v>
+      </c>
+      <c r="AQ8">
+        <v>5</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS8">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9">
+        <v>1998.99</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>12</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9">
+        <v>567891234</v>
+      </c>
+      <c r="R9" t="s">
+        <v>100</v>
+      </c>
+      <c r="S9" t="s">
+        <v>101</v>
+      </c>
+      <c r="T9">
+        <v>6</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9" t="s">
+        <v>102</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z9">
+        <v>4</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB9">
+        <v>5</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <v>2</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI9">
+        <v>2</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>2</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP9">
+        <v>0.05</v>
+      </c>
+      <c r="AQ9">
+        <v>6</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS9">
+        <v>5298.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10">
+        <v>1998.99</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>12</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10">
+        <v>123456789</v>
+      </c>
+      <c r="R10" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10" t="s">
+        <v>66</v>
+      </c>
+      <c r="X10">
+        <v>4</v>
+      </c>
+      <c r="Y10">
+        <v>23940501</v>
+      </c>
+      <c r="Z10">
+        <v>3</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB10">
+        <v>4</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD10">
+        <v>2</v>
+      </c>
+      <c r="AE10">
+        <v>2</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI10">
+        <v>2</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>2</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP10">
+        <v>0.05</v>
+      </c>
+      <c r="AQ10">
+        <v>2</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS10">
+        <v>87.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11">
+        <v>1998.99</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>12</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11">
+        <v>345678912</v>
+      </c>
+      <c r="R11" t="s">
+        <v>75</v>
+      </c>
+      <c r="S11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11" t="s">
+        <v>77</v>
+      </c>
+      <c r="X11">
+        <v>3</v>
+      </c>
+      <c r="Y11">
+        <v>29090292</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB11">
+        <v>3</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI11">
+        <v>2</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>2</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP11">
+        <v>0.05</v>
+      </c>
+      <c r="AQ11">
+        <v>3</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS11">
+        <v>210.87</v>
       </c>
     </row>
   </sheetData>
